--- a/data/women/W_2022_12_Memorial.xlsx
+++ b/data/women/W_2022_12_Memorial.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DD489-DDB7-45C1-A0A5-C94184200C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F19395-7958-44EE-8269-5D0932DB9171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="180" windowWidth="13128" windowHeight="12144" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="-11388" windowWidth="23040" windowHeight="7716" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -401,13 +403,16 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -474,12 +479,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,6 +513,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,11 +793,2518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768E5E6E-FE38-430B-B2A8-3402E429D98D}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q11" sqref="D11:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38739</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>P2/MAX($P$2:$P$46)</f>
+        <v>0.15909090909090909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.86</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="19">
+        <f t="shared" ref="Q3:Q46" si="0">P3/MAX($P$2:$P$46)</f>
+        <v>0.38636363636363635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40143</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1">
+        <v>39194</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.83</v>
+      </c>
+      <c r="K6">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.56818181818181823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0.43</v>
+      </c>
+      <c r="K8">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>28</v>
+      </c>
+      <c r="M8">
+        <v>-5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1">
+        <v>32577</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0.43</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>-7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37260</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.83</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.67</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34902</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12">
+        <v>22</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.34090909090909088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.83</v>
+      </c>
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>39587</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0.33</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <v>-4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14">
+        <v>31</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1">
+        <v>38660</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.17</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>-12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15">
+        <v>39</v>
+      </c>
+      <c r="P15">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.88636363636363635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>37338</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>-18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16">
+        <v>43</v>
+      </c>
+      <c r="P16">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>32792</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>0.67</v>
+      </c>
+      <c r="K17">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>-16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18">
+        <v>42</v>
+      </c>
+      <c r="P18">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1">
+        <v>26851</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>-11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19">
+        <v>37</v>
+      </c>
+      <c r="P19">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.84090909090909094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>0.86</v>
+      </c>
+      <c r="K20">
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1">
+        <v>38680</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K21">
+        <v>28</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1">
+        <v>39307</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.17</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>-10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22">
+        <v>38</v>
+      </c>
+      <c r="P22">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1">
+        <v>38454</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0.43</v>
+      </c>
+      <c r="K23">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>-3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23">
+        <v>27</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>42</v>
+      </c>
+      <c r="H24" s="1">
+        <v>38901</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>-20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+      <c r="P24">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>0.71</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.29545454545454547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="0"/>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0.67</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>0.83</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.11363636363636363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>35264</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K29">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>34</v>
+      </c>
+      <c r="M29">
+        <v>-18</v>
+      </c>
+      <c r="N29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29">
+        <v>41</v>
+      </c>
+      <c r="P29">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" si="0"/>
+        <v>0.93181818181818177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>0.86</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="0"/>
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>36</v>
+      </c>
+      <c r="H31" s="1">
+        <v>35065</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>0.71</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31">
+        <v>12</v>
+      </c>
+      <c r="P31">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>39769</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <v>-7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32">
+        <v>35</v>
+      </c>
+      <c r="P32">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>39</v>
+      </c>
+      <c r="H33" s="1">
+        <v>38983</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>-6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33">
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="19">
+        <f t="shared" si="0"/>
+        <v>0.79545454545454541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>0.71</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.43181818181818182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>0.71</v>
+      </c>
+      <c r="K35">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>36538</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>-20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36">
+        <v>44</v>
+      </c>
+      <c r="P36">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+      <c r="H37" s="1">
+        <v>39166</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K37">
+        <v>29</v>
+      </c>
+      <c r="L37">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1">
+        <v>34153</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0.33</v>
+      </c>
+      <c r="K38">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>-10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38">
+        <v>32</v>
+      </c>
+      <c r="P38">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19">
+        <f t="shared" si="0"/>
+        <v>0.77272727272727271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38729</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>-9</v>
+      </c>
+      <c r="N39" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39">
+        <v>36</v>
+      </c>
+      <c r="P39">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
+        <v>38476</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0.33</v>
+      </c>
+      <c r="K40">
+        <v>15</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>-12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40">
+        <v>33</v>
+      </c>
+      <c r="P40">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="0"/>
+        <v>0.70454545454545459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1">
+        <v>38359</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.17</v>
+      </c>
+      <c r="K41">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>-15</v>
+      </c>
+      <c r="N41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41">
+        <v>40</v>
+      </c>
+      <c r="P41">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>43</v>
+      </c>
+      <c r="H42" s="1">
+        <v>39317</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O42">
+        <v>24</v>
+      </c>
+      <c r="P42">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="19">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0.67</v>
+      </c>
+      <c r="K43">
+        <v>25</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43">
+        <v>15</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="0"/>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>52</v>
+      </c>
+      <c r="H44" s="1">
+        <v>39095</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>0.43</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
+        <v>28</v>
+      </c>
+      <c r="M44">
+        <v>-3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="19">
+        <f t="shared" si="0"/>
+        <v>0.65909090909090906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>27</v>
+      </c>
+      <c r="M45">
+        <v>-5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45">
+        <v>26</v>
+      </c>
+      <c r="P45">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="19">
+        <f t="shared" si="0"/>
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1">
+        <v>39056</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>0.86</v>
+      </c>
+      <c r="K46">
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="0"/>
+        <v>0.20454545454545456</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{768E5E6E-FE38-430B-B2A8-3402E429D98D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,7 +4238,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1733,12 +4246,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D648310-C7FB-413F-A0B1-E0DF38AE26F0}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1793,31 +4306,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>77</v>
@@ -1875,31 +4388,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
       <c r="F4">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -1916,28 +4429,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0.86</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>11</v>
@@ -1957,31 +4470,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>77</v>
@@ -1998,31 +4511,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>77</v>
@@ -2039,31 +4552,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
         <v>28</v>
       </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
       <c r="I8">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -2080,31 +4593,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -2162,31 +4675,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>17</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -2203,31 +4716,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>77</v>
@@ -2244,31 +4757,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="G13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>77</v>
@@ -2285,31 +4798,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="J14" t="s">
         <v>77</v>
@@ -2326,34 +4839,34 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>-12</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1">
         <v>44912</v>
@@ -2367,34 +4880,34 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>-18</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="1">
         <v>44912</v>
@@ -2408,13 +4921,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -2426,13 +4939,13 @@
         <v>0.67</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
         <v>77</v>
@@ -2449,34 +4962,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="1">
         <v>44912</v>
@@ -2490,34 +5003,34 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.56999999999999995</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G19">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1">
         <v>44912</v>
@@ -2531,31 +5044,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>0.56999999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
         <v>77</v>
@@ -2572,16 +5085,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2590,13 +5103,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>77</v>
@@ -2613,34 +5126,34 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22" s="1">
         <v>44912</v>
@@ -2654,31 +5167,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J23" t="s">
         <v>77</v>
@@ -2695,34 +5208,34 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K24" s="1">
         <v>44912</v>
@@ -2736,31 +5249,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
         <v>77</v>
@@ -2777,31 +5290,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I26">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
         <v>77</v>
@@ -2818,31 +5331,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I27">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
         <v>77</v>
@@ -2859,10 +5372,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2871,19 +5384,19 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="G28">
         <v>29</v>
       </c>
       <c r="H28">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
         <v>77</v>
@@ -2900,34 +5413,34 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.43</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G29">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I29">
-        <v>-3</v>
+        <v>-18</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1">
         <v>44912</v>
@@ -2941,31 +5454,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J30" t="s">
         <v>77</v>
@@ -2982,31 +5495,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0.71</v>
+      </c>
+      <c r="G31">
+        <v>31</v>
+      </c>
+      <c r="H31">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0.43</v>
-      </c>
-      <c r="G31">
-        <v>23</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
       <c r="I31">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
         <v>77</v>
@@ -3023,13 +5536,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -3038,16 +5551,16 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G32">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I32">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="J32" t="s">
         <v>77</v>
@@ -3064,13 +5577,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -3079,16 +5592,16 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="J33" t="s">
         <v>77</v>
@@ -3105,31 +5618,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
         <v>77</v>
@@ -3146,31 +5659,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
         <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>0.28999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I35">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
         <v>77</v>
@@ -3187,34 +5700,34 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G36">
-        <v>25</v>
-      </c>
-      <c r="H36">
-        <v>32</v>
-      </c>
       <c r="I36">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" s="1">
         <v>44912</v>
@@ -3228,31 +5741,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0.28999999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>29</v>
       </c>
       <c r="I37">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>77</v>
@@ -3269,13 +5782,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -3284,19 +5797,19 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I38">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" s="1">
         <v>44912</v>
@@ -3310,34 +5823,34 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H39">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I39">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K39" s="1">
         <v>44912</v>
@@ -3351,34 +5864,34 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I40">
         <v>-12</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K40" s="1">
         <v>44912</v>
@@ -3433,34 +5946,34 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>0.14000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I42">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42" s="1">
         <v>44912</v>
@@ -3474,34 +5987,34 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I43">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43" s="1">
         <v>44912</v>
@@ -3515,34 +6028,34 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I44">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44" s="1">
         <v>44912</v>
@@ -3556,34 +6069,34 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I45">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45" s="1">
         <v>44912</v>
@@ -3597,34 +6110,34 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I46">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K46" s="1">
         <v>44912</v>
@@ -3637,18 +6150,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{2D648310-C7FB-413F-A0B1-E0DF38AE26F0}"/>
+  <autoFilter ref="A1:M1" xr:uid="{2D648310-C7FB-413F-A0B1-E0DF38AE26F0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M46">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11870A89-98BC-44C2-B78C-50C9C481F2E2}">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3686,19 +6203,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>37934</v>
+        <v>38739</v>
       </c>
       <c r="F2" s="1">
         <v>44912</v>
@@ -3712,19 +6229,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36091</v>
+        <v>37414</v>
       </c>
       <c r="F3" s="1">
         <v>44912</v>
@@ -3738,10 +6255,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -3750,7 +6267,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>37171</v>
+        <v>40143</v>
       </c>
       <c r="F4" s="1">
         <v>44912</v>
@@ -3764,19 +6281,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1">
-        <v>33018</v>
+        <v>39194</v>
       </c>
       <c r="F5" s="1">
         <v>44912</v>
@@ -3790,19 +6307,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>36310</v>
+        <v>36617</v>
       </c>
       <c r="F6" s="1">
         <v>44912</v>
@@ -3816,19 +6333,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>36617</v>
+        <v>32455</v>
       </c>
       <c r="F7" s="1">
         <v>44912</v>
@@ -3842,19 +6359,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>38739</v>
+        <v>33420</v>
       </c>
       <c r="F8" s="1">
         <v>44912</v>
@@ -3868,19 +6385,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>39317</v>
+        <v>32577</v>
       </c>
       <c r="F9" s="1">
         <v>44912</v>
@@ -3894,19 +6411,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
       <c r="E10" s="1">
-        <v>39056</v>
+        <v>37260</v>
       </c>
       <c r="F10" s="1">
         <v>44912</v>
@@ -3920,10 +6437,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -3932,7 +6449,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>37444</v>
+        <v>37934</v>
       </c>
       <c r="F11" s="1">
         <v>44912</v>
@@ -3946,19 +6463,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1">
-        <v>35537</v>
+        <v>34902</v>
       </c>
       <c r="F12" s="1">
         <v>44912</v>
@@ -3972,19 +6489,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>36429</v>
+        <v>35537</v>
       </c>
       <c r="F13" s="1">
         <v>44912</v>
@@ -3998,19 +6515,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>37401</v>
+        <v>39587</v>
       </c>
       <c r="F14" s="1">
         <v>44912</v>
@@ -4024,19 +6541,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1">
-        <v>34911</v>
+        <v>38660</v>
       </c>
       <c r="F15" s="1">
         <v>44912</v>
@@ -4050,19 +6567,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>34902</v>
+        <v>37338</v>
       </c>
       <c r="F16" s="1">
         <v>44912</v>
@@ -4076,19 +6593,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>39587</v>
+        <v>32792</v>
       </c>
       <c r="F17" s="1">
         <v>44912</v>
@@ -4102,19 +6619,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1">
-        <v>37414</v>
+        <v>36889</v>
       </c>
       <c r="F18" s="1">
         <v>44912</v>
@@ -4128,19 +6645,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1">
-        <v>37260</v>
+        <v>26851</v>
       </c>
       <c r="F19" s="1">
         <v>44912</v>
@@ -4154,19 +6671,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>35707</v>
+        <v>36091</v>
       </c>
       <c r="F20" s="1">
         <v>44912</v>
@@ -4180,19 +6697,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
-        <v>35065</v>
+        <v>38680</v>
       </c>
       <c r="F21" s="1">
         <v>44912</v>
@@ -4206,19 +6723,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>32792</v>
+        <v>39307</v>
       </c>
       <c r="F22" s="1">
         <v>44912</v>
@@ -4232,10 +6749,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -4244,7 +6761,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1">
-        <v>39194</v>
+        <v>38454</v>
       </c>
       <c r="F23" s="1">
         <v>44912</v>
@@ -4258,10 +6775,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -4270,7 +6787,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="1">
-        <v>38680</v>
+        <v>38901</v>
       </c>
       <c r="F24" s="1">
         <v>44912</v>
@@ -4284,19 +6801,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1">
-        <v>39166</v>
+        <v>37401</v>
       </c>
       <c r="F25" s="1">
         <v>44912</v>
@@ -4310,19 +6827,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>32455</v>
+        <v>33018</v>
       </c>
       <c r="F26" s="1">
         <v>44912</v>
@@ -4336,19 +6853,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1">
-        <v>40143</v>
+        <v>34911</v>
       </c>
       <c r="F27" s="1">
         <v>44912</v>
@@ -4362,19 +6879,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>38143</v>
+        <v>36310</v>
       </c>
       <c r="F28" s="1">
         <v>44912</v>
@@ -4388,19 +6905,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1">
-        <v>38454</v>
+        <v>35264</v>
       </c>
       <c r="F29" s="1">
         <v>44912</v>
@@ -4414,10 +6931,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -4426,7 +6943,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="1">
-        <v>39095</v>
+        <v>37444</v>
       </c>
       <c r="F30" s="1">
         <v>44912</v>
@@ -4440,19 +6957,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>32577</v>
+        <v>35065</v>
       </c>
       <c r="F31" s="1">
         <v>44912</v>
@@ -4466,19 +6983,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1">
-        <v>38476</v>
+        <v>39769</v>
       </c>
       <c r="F32" s="1">
         <v>44912</v>
@@ -4492,10 +7009,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -4504,7 +7021,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="1">
-        <v>38729</v>
+        <v>38983</v>
       </c>
       <c r="F33" s="1">
         <v>44912</v>
@@ -4518,19 +7035,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1">
-        <v>33420</v>
+        <v>35707</v>
       </c>
       <c r="F34" s="1">
         <v>44912</v>
@@ -4544,19 +7061,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
         <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="1">
-        <v>34153</v>
+        <v>36429</v>
       </c>
       <c r="F35" s="1">
         <v>44912</v>
@@ -4570,19 +7087,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1">
-        <v>38983</v>
+        <v>36538</v>
       </c>
       <c r="F36" s="1">
         <v>44912</v>
@@ -4596,19 +7113,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1">
-        <v>39769</v>
+        <v>39166</v>
       </c>
       <c r="F37" s="1">
         <v>44912</v>
@@ -4622,19 +7139,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1">
-        <v>26851</v>
+        <v>34153</v>
       </c>
       <c r="F38" s="1">
         <v>44912</v>
@@ -4648,19 +7165,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1">
-        <v>39307</v>
+        <v>38729</v>
       </c>
       <c r="F39" s="1">
         <v>44912</v>
@@ -4674,19 +7191,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1">
-        <v>38660</v>
+        <v>38476</v>
       </c>
       <c r="F40" s="1">
         <v>44912</v>
@@ -4726,19 +7243,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1">
-        <v>35264</v>
+        <v>39317</v>
       </c>
       <c r="F42" s="1">
         <v>44912</v>
@@ -4752,19 +7269,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1">
-        <v>36889</v>
+        <v>37171</v>
       </c>
       <c r="F43" s="1">
         <v>44912</v>
@@ -4778,19 +7295,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1">
-        <v>37338</v>
+        <v>39095</v>
       </c>
       <c r="F44" s="1">
         <v>44912</v>
@@ -4804,19 +7321,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1">
-        <v>36538</v>
+        <v>38143</v>
       </c>
       <c r="F45" s="1">
         <v>44912</v>
@@ -4830,19 +7347,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E46" s="1">
-        <v>38901</v>
+        <v>39056</v>
       </c>
       <c r="F46" s="1">
         <v>44912</v>
@@ -4855,13 +7372,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{11870A89-98BC-44C2-B78C-50C9C481F2E2}"/>
+  <autoFilter ref="A1:H1" xr:uid="{11870A89-98BC-44C2-B78C-50C9C481F2E2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A5E78-46A5-4CCE-83C8-B9D91A3FCB7F}">
   <dimension ref="A1:K296"/>
   <sheetViews>
@@ -15215,11 +17736,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CE84B1-BAD7-4F25-9A5A-80E408B117A5}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
+    <sheetView topLeftCell="C42" workbookViewId="0">
       <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
